--- a/biology/Histoire de la zoologie et de la botanique/Antonius_Castor/Antonius_Castor.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Antonius_Castor/Antonius_Castor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antonius Castor est un médecin romain qui vécut au Ier siècle et qui était réputé avoir été plus que centenaire sans aucune maladie[1]. 
-Il possédait une collection de plantes médicinales dans son jardin botanique à Rome. Georges Cuvier dans son histoire des sciences naturelles souligne qu'il fut le quatrième ancien à posséder un jardin botanique, après Théophraste, Mithridate et Attale[2]. C'est à cet endroit et avec l'aide de ce tuteur que Pline l'Ancien enfant commença à apprendre la botanique[1].
-Pline cite Antonius Castor parmi ses sources dans ses livres traitant des remèdes fournis par les plantes de jardin, à propos du pipéritis et du marrube blanc au suc employé comme vomitif mélangé à un œuf et du miel[3], de la nature des fleurs et des guirlandes[4] et des remèdes tirés des arbres cultivés, à propos du myrte sauvage[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antonius Castor est un médecin romain qui vécut au Ier siècle et qui était réputé avoir été plus que centenaire sans aucune maladie. 
+Il possédait une collection de plantes médicinales dans son jardin botanique à Rome. Georges Cuvier dans son histoire des sciences naturelles souligne qu'il fut le quatrième ancien à posséder un jardin botanique, après Théophraste, Mithridate et Attale. C'est à cet endroit et avec l'aide de ce tuteur que Pline l'Ancien enfant commença à apprendre la botanique.
+Pline cite Antonius Castor parmi ses sources dans ses livres traitant des remèdes fournis par les plantes de jardin, à propos du pipéritis et du marrube blanc au suc employé comme vomitif mélangé à un œuf et du miel, de la nature des fleurs et des guirlandes et des remèdes tirés des arbres cultivés, à propos du myrte sauvage.
 </t>
         </is>
       </c>
